--- a/biology/Zoologie/Geryichthys_sterbai/Geryichthys_sterbai.xlsx
+++ b/biology/Zoologie/Geryichthys_sterbai/Geryichthys_sterbai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geryichthys
 Geryichthys sterbai, unique représentant du genre Geryichthys, est une espèce de poissons d'eau douce téléostéens de la famille des Crenuchidae (ordre des Characiformes).
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geryichthys sterbai est endémique du Pérou[1] où il se rencontre dans le bassin de l'Amazone dans les environs d'Iquitos et dans le río Ucayali[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geryichthys sterbai est endémique du Pérou où il se rencontre dans le bassin de l'Amazone dans les environs d'Iquitos et dans le río Ucayali.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geryichthys sterbai peut mesurer jusqu'à 30 mm, queue non comprise[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geryichthys sterbai peut mesurer jusqu'à 30 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Geryichthys sterbai Zarske, 1997[3].
-Geryichthys sterbai a pour synonyme[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Geryichthys sterbai Zarske, 1997.
+Geryichthys sterbai a pour synonyme :
 Characidium sterbai (Zarske, 1997)</t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique, Geryichthys, est dédié à l'ichtyologiste français Jacques Géry (1917-2007).
-L'épithète spécifique, sterbai, a été donnée en l'honneur du zoologiste et ichtyologiste allemand Günther Sterba (d) (1922-2021)[4]
+L'épithète spécifique, sterbai, a été donnée en l'honneur du zoologiste et ichtyologiste allemand Günther Sterba (d) (1922-2021)
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) Axel Zarske, « Geryichthys sterbai gen. et spec. nov. and Microcharacidium geryi spec. nov.: Beschreibung einer neuen Gattung und zweier neuer Arten von Bodensalmlern aus dem Einzugsgebiet des Rio Ucayali in Peru (Teleostei: Ostariophysi: Characiformes: Characidiidae) », Abhandlungen und Berichte des Staatlichen Museums für Völkerkunde, Dresden, Dresde, vol. 49, no 2,‎ 1997, p. 157-172.</t>
         </is>
